--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1543302.837391955</v>
+        <v>-1545682.508593981</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836231</v>
       </c>
     </row>
     <row r="8">
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>242.2574452206763</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.0361620222936</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>99.8052220590294</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>147.267552145388</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>65.05884990877803</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>104.0001894004429</v>
       </c>
       <c r="F5" t="n">
-        <v>91.42179717797356</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>126.0887386816666</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>20.57102980333316</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.097474643207</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>122.1529424026873</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>128.8382509449108</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>110.2398088806205</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>155.6249412521981</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7268717888038</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>110.4892783404654</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1853,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396203</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589021</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>193.722708561908</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>110.6977437732683</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>35.19569619650027</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>84.82420463792828</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292612</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851117</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734066883</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744735</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>258.2317318494244</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292612</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851117</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409991</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,19 +2716,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>146.908382160447</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004742</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67804628306413</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292612</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851117</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409991</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633446</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800351</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797649</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433982</v>
+        <v>98.44591140433856</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404355</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572811</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124547</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575765</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052353</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179983</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124634</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
         <v>172.5738126575766</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797663</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1745.334734821698</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>1369.896143111252</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1011.630444504501</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>625.8421919062569</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>625.8421919062569</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2430.972763142358</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2177.21097778045</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1846.148090436879</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>1745.334734821698</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X2" t="n">
-        <v>1745.334734821698</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y2" t="n">
-        <v>1745.334734821698</v>
+        <v>1738.858660051663</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629043</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>507.3364050629043</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>507.3364050629043</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>507.3364050629043</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>360.4464575649939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4525,13 +4525,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629043</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.712458167646</v>
+        <v>907.090798542223</v>
       </c>
       <c r="C5" t="n">
-        <v>1249.712458167646</v>
+        <v>538.1282816018113</v>
       </c>
       <c r="D5" t="n">
-        <v>891.4467595608955</v>
+        <v>179.8625829950608</v>
       </c>
       <c r="E5" t="n">
-        <v>891.4467595608955</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4744,25 +4744,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>825.7212517577275</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>467.455553150977</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>81.66730055273274</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>74.72179980352927</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4844,10 +4844,10 @@
         <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.288858935031</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1780.41262192169</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4893,31 +4893,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.0636002298166</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>354.283994459117</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5027,7 +5027,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5039,25 +5039,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5066,25 +5066,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5118,7 +5118,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>619.8559841413803</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C13" t="n">
-        <v>619.8559841413803</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D13" t="n">
-        <v>619.8559841413803</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E13" t="n">
-        <v>471.9428905589872</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>471.9428905589872</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>304.2400539337061</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X13" t="n">
-        <v>619.8559841413803</v>
+        <v>744.1754152012699</v>
       </c>
       <c r="Y13" t="n">
-        <v>619.8559841413803</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,52 +5276,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>391.8664332433602</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8664332433602</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D16" t="n">
-        <v>241.7497938310245</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E16" t="n">
-        <v>241.7497938310245</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7497938310245</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7497938310245</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5446,40 +5446,40 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862229</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258582</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384225</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783381</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413776</v>
+        <v>1341.455177601548</v>
       </c>
       <c r="X16" t="n">
-        <v>391.8664332433602</v>
+        <v>1341.455177601548</v>
       </c>
       <c r="Y16" t="n">
-        <v>391.8664332433602</v>
+        <v>1120.662598458018</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5492,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>264.4972173763014</v>
+        <v>508.0400813400983</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5704,19 +5704,19 @@
         <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1257.381005660696</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1002.69651745481</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W19" t="n">
-        <v>713.2793474178488</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X19" t="n">
-        <v>485.2897965198315</v>
+        <v>508.0400813400983</v>
       </c>
       <c r="Y19" t="n">
-        <v>264.4972173763014</v>
+        <v>508.0400813400983</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5729,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5759,37 +5759,37 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,28 +5829,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>300.0484256555945</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C22" t="n">
-        <v>131.1122427276876</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D22" t="n">
-        <v>131.1122427276876</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>131.1122427276876</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>131.1122427276876</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1589.146109903272</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1589.146109903272</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208122</v>
+        <v>1334.461621697385</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838516</v>
+        <v>1045.044451660424</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858343</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="Y22" t="n">
-        <v>481.6968904858343</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277725</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563071</v>
       </c>
       <c r="L23" t="n">
-        <v>1407.474004094473</v>
+        <v>1586.925993846829</v>
       </c>
       <c r="M23" t="n">
-        <v>1941.005908766397</v>
+        <v>2120.457898518752</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.758180993044</v>
+        <v>2667.236715577534</v>
       </c>
       <c r="O23" t="n">
-        <v>3800.722831322499</v>
+        <v>3547.201365906988</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353933</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193583</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320231</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454338</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008792</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426847</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902949</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549549</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C25" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.230648292702</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952187</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1192.220376077348</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>937.5358878714605</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>648.1187178345</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>648.1187178345</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>427.3261386909699</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074195</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972654</v>
       </c>
       <c r="L26" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750619</v>
       </c>
       <c r="M26" t="n">
-        <v>2750.971543384379</v>
+        <v>2461.328657580447</v>
       </c>
       <c r="N26" t="n">
-        <v>3297.750360443162</v>
+        <v>3441.080929807093</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.722831322499</v>
+        <v>4075.97392775006</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494866</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763717</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193583</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320231</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.476988454338</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008792</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6324,7 +6324,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,16 +6333,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.4810578558177</v>
+        <v>391.8664332433602</v>
       </c>
       <c r="C28" t="n">
-        <v>409.4810578558177</v>
+        <v>391.8664332433602</v>
       </c>
       <c r="D28" t="n">
-        <v>409.4810578558177</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.230648292702</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952187</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862229</v>
       </c>
       <c r="S28" t="n">
-        <v>1913.234328445043</v>
+        <v>1674.827124689056</v>
       </c>
       <c r="T28" t="n">
-        <v>1691.467713014569</v>
+        <v>1453.060509258582</v>
       </c>
       <c r="U28" t="n">
-        <v>1402.364846140213</v>
+        <v>1163.957642384225</v>
       </c>
       <c r="V28" t="n">
-        <v>1147.680357934326</v>
+        <v>909.2731541783381</v>
       </c>
       <c r="W28" t="n">
-        <v>858.2631878973651</v>
+        <v>619.8559841413776</v>
       </c>
       <c r="X28" t="n">
-        <v>630.2736369993478</v>
+        <v>391.8664332433602</v>
       </c>
       <c r="Y28" t="n">
-        <v>409.4810578558177</v>
+        <v>391.8664332433602</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6440,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277725</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563071</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1840.447459262343</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2373.979363934267</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2920.758180993048</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>3800.722831322502</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.49719767968</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193583</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320231</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454338</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008792</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215063</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416727</v>
+        <v>667.0286178416715</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774103</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430905</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H31" t="n">
         <v>145.4370786819757</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J31" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K31" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L31" t="n">
-        <v>800.7468040499225</v>
+        <v>800.746804049922</v>
       </c>
       <c r="M31" t="n">
-        <v>1191.409234901878</v>
+        <v>1191.409234901877</v>
       </c>
       <c r="N31" t="n">
         <v>1579.322996860149</v>
@@ -6637,34 +6637,34 @@
         <v>1925.157981032969</v>
       </c>
       <c r="P31" t="n">
-        <v>2204.270866719035</v>
+        <v>2204.270866719034</v>
       </c>
       <c r="Q31" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123955</v>
       </c>
       <c r="R31" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829556</v>
       </c>
       <c r="S31" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604456</v>
       </c>
       <c r="T31" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122055</v>
       </c>
       <c r="U31" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195772</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.564400937959</v>
       </c>
       <c r="W31" t="n">
-        <v>1276.596863849074</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X31" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036727</v>
+        <v>922.7139997036712</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6783,7 +6783,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6795,16 +6795,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430903</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819766</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>187.1890521477366</v>
@@ -6877,31 +6877,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T34" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036714</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,16 +7044,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416723</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774099</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430894</v>
+        <v>463.89815074309</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932529</v>
       </c>
       <c r="G37" t="n">
         <v>244.2046325160447</v>
@@ -7093,13 +7093,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1890521477365</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7114,13 +7114,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q37" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R37" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T37" t="n">
         <v>1967.452490122057</v>
@@ -7138,7 +7138,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="38">
@@ -7175,16 +7175,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>1014.851249206415</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7199,19 +7199,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
@@ -7330,16 +7330,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477364</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490193</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
-        <v>1191.409234901877</v>
+        <v>1191.409234901878</v>
       </c>
       <c r="N40" t="n">
         <v>1579.322996860149</v>
@@ -7360,7 +7360,7 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
         <v>1725.799256195774</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036717</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7409,19 +7409,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7552,13 +7552,13 @@
         <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7597,10 +7597,10 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
@@ -7637,28 +7637,28 @@
         <v>850.2139837551622</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074201</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427198</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.86673817257</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2055.398642844494</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903276</v>
+        <v>2749.983578264599</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7758,7 +7758,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
         <v>364.4578361932524</v>
@@ -7804,13 +7804,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499226</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,19 +7825,19 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>288.0478149561032</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>258.621178561693</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>189.7998007892655</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.253057640027</v>
+        <v>67.53663776704173</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,28 +9638,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>172.4995987156003</v>
+        <v>29.61882225792834</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>3.302608186928069e-12</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>248.8400772687148</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400319</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>285.7011105564281</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,10 +10124,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>231.5010718068643</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>132.9990175570107</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>231.5010718068653</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>161.3164960129021</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>249.4357466583836</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>34.5152060337003</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>70.08471413683904</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02814312551700482</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>176.0337199961256</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23905,10 +23905,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>92.48912964370487</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>115.0119116157688</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>130.8301120625279</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>134.7247446382409</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983816</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004742</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.14213605696844</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>27.98010635618851</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>1.707090857765394</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983816</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>147.0909790483778</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-2.805164785743804e-14</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26314,13 +26314,13 @@
         <v>111151.7323348872</v>
       </c>
       <c r="C2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="E2" t="n">
-        <v>119124.5360660949</v>
+        <v>119124.536066095</v>
       </c>
       <c r="F2" t="n">
         <v>119124.536066095</v>
@@ -26338,13 +26338,13 @@
         <v>119124.536066095</v>
       </c>
       <c r="K2" t="n">
+        <v>123156.2654796424</v>
+      </c>
+      <c r="L2" t="n">
         <v>123156.2654796423</v>
       </c>
-      <c r="L2" t="n">
-        <v>123156.2654796424</v>
-      </c>
       <c r="M2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796423</v>
       </c>
       <c r="N2" t="n">
         <v>123156.2654796424</v>
@@ -26353,7 +26353,7 @@
         <v>123156.2654796424</v>
       </c>
       <c r="P2" t="n">
-        <v>123156.2654796423</v>
+        <v>123156.2654796424</v>
       </c>
     </row>
     <row r="3">
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487421</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5.386659722717014e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487419</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137670.0716798393</v>
+        <v>137670.0716798394</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26424,25 +26424,25 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918988</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231919003</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231919001</v>
       </c>
       <c r="K4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.6532974091</v>
       </c>
       <c r="L4" t="n">
         <v>33605.65329740899</v>
@@ -26451,13 +26451,13 @@
         <v>33605.65329740899</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740894</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740902</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740901</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-699345.2966229061</v>
+        <v>-699545.3721753187</v>
       </c>
       <c r="C6" t="n">
-        <v>-143051.4994408949</v>
+        <v>-143051.499440895</v>
       </c>
       <c r="D6" t="n">
-        <v>-143051.4994408949</v>
+        <v>-143051.499440895</v>
       </c>
       <c r="E6" t="n">
-        <v>-722784.8885002153</v>
+        <v>-722852.0839904411</v>
       </c>
       <c r="F6" t="n">
-        <v>4592.525493191439</v>
+        <v>4525.330002965603</v>
       </c>
       <c r="G6" t="n">
-        <v>4592.525493191395</v>
+        <v>4525.330002965676</v>
       </c>
       <c r="H6" t="n">
-        <v>4592.525493191381</v>
+        <v>4525.330002965588</v>
       </c>
       <c r="I6" t="n">
-        <v>4592.52549319141</v>
+        <v>4525.330002966388</v>
       </c>
       <c r="J6" t="n">
-        <v>-171830.6936994015</v>
+        <v>-171897.8891896274</v>
       </c>
       <c r="K6" t="n">
-        <v>-48362.16812674287</v>
+        <v>-48362.168126743</v>
       </c>
       <c r="L6" t="n">
-        <v>-10782.05883186871</v>
+        <v>-10782.05883186928</v>
       </c>
       <c r="M6" t="n">
-        <v>-140424.3736708134</v>
+        <v>-140424.3736708136</v>
       </c>
       <c r="N6" t="n">
-        <v>-10782.05883186868</v>
+        <v>-10782.05883186866</v>
       </c>
       <c r="O6" t="n">
-        <v>-10782.05883186868</v>
+        <v>-10782.05883186869</v>
       </c>
       <c r="P6" t="n">
-        <v>-48362.16812674281</v>
+        <v>-48362.16812674294</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26756,13 +26756,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859276</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859274</v>
       </c>
     </row>
     <row r="3">
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859276</v>
       </c>
     </row>
     <row r="3">
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>10.21022878721666</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>7.412158335364239</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>20.0422501136629</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>160.6508054802591</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>277.9301806718188</v>
       </c>
       <c r="F5" t="n">
-        <v>315.4542485637379</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,13 +27670,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>126.0489046421614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>393.2131402174618</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>210.1404640128466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>45.09387869594055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,10 +28026,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>96.19685451317346</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-3.503389785696183e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681594</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844663</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953984</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003805</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623186</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574987</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095016</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099051</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746407</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781685</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563566</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806941</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345274</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502564</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798529</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175225</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353153</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138791</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233468</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837918</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970244</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002922</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987483</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238312</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742012</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702022</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098817</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316429</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883112</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085998</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802167</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712207</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553032</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112287</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681594</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844663</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953984</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003805</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623186</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574987</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095016</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099051</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746407</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781685</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563566</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806941</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345274</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502564</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798529</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175225</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353153</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138791</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233468</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837918</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970277</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002922</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987483</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238312</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742012</v>
       </c>
       <c r="J28" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702022</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098817</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316429</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883112</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085998</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802167</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712207</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553032</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112287</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681594</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844663</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953984</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003805</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623186</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574987</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095016</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099051</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746407</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781685</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563566</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806941</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345274</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502564</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798529</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175225</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353153</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138791</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233468</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837918</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970277</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002922</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987483</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238312</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898489</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742012</v>
       </c>
       <c r="J31" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702022</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098817</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316429</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883112</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085998</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802167</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712207</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553032</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112287</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>625.2391015115037</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>766.6741794499121</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675375</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>742.1016362021768</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.306058528246</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407859</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265647</v>
       </c>
       <c r="L23" t="n">
-        <v>628.0897131079324</v>
+        <v>485.2089366502597</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830226</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129106</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509637</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908538</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636237</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.6131985422245</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597688</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609563</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340049</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013285</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004585</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.11240345258</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.635950985962</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127268</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306608</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443193</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701979</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934835</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675397</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226395</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451102</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789349</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687122</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865553999</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427818</v>
       </c>
       <c r="M26" t="n">
-        <v>787.7611930989416</v>
+        <v>988.4346493230585</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248948</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282502</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193712</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.794304803719</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.6131985422245</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597688</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609563</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340049</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013285</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004585</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525834</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.635950985962</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127268</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306608</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443193</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701979</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934835</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675397</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226395</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451102</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789349</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407859</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265647</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>741.2912249487595</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830226</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129106</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509637</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193712</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636237</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152069</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597688</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609563</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340049</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013285</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004585</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525834</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.635950985962</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127268</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120762</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861324</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37543,7 +37543,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>568.6923583622648</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37552,10 +37552,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>588.5891319493431</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509648</v>
+        <v>739.5540726950843</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
